--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_10_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_10_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48394.90493091784</v>
+        <v>9630586.081252649</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48394.90493091784</v>
+        <v>9630586.081252649</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2262.939762247198</v>
+        <v>135776.3857348319</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2262.939762247198</v>
+        <v>135776.3857348319</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188916753.437839</v>
+        <v>48471233.43627151</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9753.097122987019</v>
+        <v>1067950.774748722</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18916.04786017684</v>
+        <v>2043938.385232466</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28078.99859736666</v>
+        <v>3019925.99571621</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37639.0535755927</v>
+        <v>4009653.698943669</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47130.21158412176</v>
+        <v>4985670.90520143</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56621.36959265081</v>
+        <v>5961688.111459191</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66112.52760117986</v>
+        <v>6937705.317716948</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75603.6856097089</v>
+        <v>7913722.523974705</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>85569.31406326285</v>
+        <v>8882449.281074284</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>95466.04554711981</v>
+        <v>9837465.541204168</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>105170.7841617094</v>
+        <v>10813482.74746193</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>114593.0452005415</v>
+        <v>11775789.45675</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>124084.2032090705</v>
+        <v>12751806.66300777</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>133575.3612175996</v>
+        <v>13727823.86926554</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>143066.5192261286</v>
+        <v>14703841.07552331</v>
       </c>
     </row>
   </sheetData>
